--- a/static/extracted_invoice_details.xlsx
+++ b/static/extracted_invoice_details.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,244 +428,332 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Invoice Number</t>
+          <t>Field</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Invoice Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Buyer Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Buyer Address</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Buyer GSTIN</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Seller Name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Seller Address</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Seller GSTIN</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>State Name</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PO Number</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Invoice Amount</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Taxable Amount</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Total Amount</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Tax Amount (CGST, SGST, IGST)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Total Tax Amount</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>TCS Amount</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>IRN Number</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Receiver GSTIN</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Receiver Name</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Vendor GSTIN</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Vendor Name</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Vendor Code</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Other relevant financial details</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AG/2021/097</t>
+          <t>Invoice Number</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>AG/2021/082</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Invoice Date</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>06/10/2020</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Buyer Name</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heaith &amp; Glow Private Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Buyer Address</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sun Plaza, Old # 19, New # 39, 3rd Floor, Unit #3, G.N Chetty Road, Teynampet, Chennai 600006</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Buyer GSTIN</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S33AKACF4045K12U</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Seller Name</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AAX GLOBAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Seller Address</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>462/A, RMV 2ND STAGE, ASHWATH NAGAR, BANGALORE 560094, KARNATAKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Seller GSTIN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2OALPS9O296478</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>State Name</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PO Number</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4550825</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Invoice Amount</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>619.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Taxable Amount</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>524.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>619.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tax Amount (CGST, SGST, IGST)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Tax Amount</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TCS Amount</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>IRN Number</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Receiver GSTIN</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Receiver Name</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Vendor GSTIN</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>33AAACF4045K1ZU</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Vendor Name</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Health &amp; Glow Private Ltd</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sun Plaza, Old # 19, New # 39, 3rd Floor, Unit #3, G.N Chetty Road, Teynampet, Chennai 600006.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>33AAACF4045K1ZU</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>AAX GLOBAL</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>162/A, RMV 2ND STAGE, ASHWATH NAGAR, BANGALORE 560094, KARNATAKA</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>29ALSPS9039E1ZB</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Tamil Nadu</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>4550840</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>309.00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>262.19</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>309.00</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>47.19</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>47.19</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Not mentioned</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Not mentioned</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>33AAACF4045K1ZU</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Health &amp; Glow Private Ltd</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Not mentioned</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Not mentioned</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Not mentioned</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Not mentioned</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Bank Details: Bank: CANARA Bank, A/C NO: 2699201010003, IFCS CODE: CNRB0002699</t>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Vendor Code</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Amount of Tax Subject to Reverse Charge: 0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Other relevant financial details</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CANARA Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AJC NO</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2699201010003</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>IFCS CODE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CNRBO002699</t>
         </is>
       </c>
     </row>
